--- a/gdp_revisions_analysis/output/tables/unbiassdness_r_m_tesis.xlsx
+++ b/gdp_revisions_analysis/output/tables/unbiassdness_r_m_tesis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb59f80414e38fcc/Documentos/Research Assistant/CIUP/GDP Revisions/GitHub/peru_gdp_revisions/gdp_revisions_analysis/output/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="593" documentId="6_{5922D8D3-8FD0-48DD-8708-9F0D9D771A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42862D88-FBAD-4B51-BC4C-6145BCB55E44}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="6_{F8A49D07-D449-4470-A706-79DE35031CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FA4237D-4471-4BC6-B814-6B2B2EB03D28}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59A818B8-AC1C-48B4-9EC6-7BF703468C77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{59A818B8-AC1C-48B4-9EC6-7BF703468C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="r_y_e" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="56">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -50,9 +51,6 @@
     <t>Media</t>
   </si>
   <si>
-    <t>Horizonte (h)</t>
-  </si>
-  <si>
     <t>PBI</t>
   </si>
   <si>
@@ -141,6 +139,72 @@
   </si>
   <si>
     <t>SD</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>0.255***</t>
+  </si>
+  <si>
+    <t>0.110***</t>
+  </si>
+  <si>
+    <t>0.058**</t>
+  </si>
+  <si>
+    <t>0.750***</t>
+  </si>
+  <si>
+    <t>0.409***</t>
+  </si>
+  <si>
+    <t>0.227***</t>
+  </si>
+  <si>
+    <t>1.467***</t>
+  </si>
+  <si>
+    <t>-0.352**</t>
+  </si>
+  <si>
+    <t>0.299***</t>
+  </si>
+  <si>
+    <t>0.198***</t>
+  </si>
+  <si>
+    <t>0.164***</t>
+  </si>
+  <si>
+    <t>0.249***</t>
+  </si>
+  <si>
+    <t>0.113*</t>
+  </si>
+  <si>
+    <t>-0.049*</t>
+  </si>
+  <si>
+    <t>0.047**</t>
+  </si>
+  <si>
+    <t>0.437***</t>
+  </si>
+  <si>
+    <t>0.187***</t>
+  </si>
+  <si>
+    <t>0.120**</t>
+  </si>
+  <si>
+    <t>Revisiones de predicción</t>
+  </si>
+  <si>
+    <t>Errores de predicción</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -221,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -247,15 +311,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,27 +656,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496513D8-45F4-412F-B325-A911B1FC58A0}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F46"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>3</v>
@@ -621,24 +685,24 @@
         <v>32</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -648,7 +712,7 @@
         <v>370</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4">
         <v>0.35499999999999998</v>
@@ -694,7 +758,7 @@
         <v>361</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>0.24099999999999999</v>
@@ -733,14 +797,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -773,7 +837,7 @@
         <v>366</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2">
         <v>0.57199999999999995</v>
@@ -796,7 +860,7 @@
         <v>361</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>0.501</v>
@@ -819,7 +883,7 @@
         <v>343</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2">
         <v>0.33900000000000002</v>
@@ -835,14 +899,14 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="A12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -875,7 +939,7 @@
         <v>366</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2">
         <v>5.1639999999999997</v>
@@ -921,7 +985,7 @@
         <v>343</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2">
         <v>1.153</v>
@@ -937,14 +1001,14 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -954,7 +1018,7 @@
         <v>370</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2">
         <v>0.751</v>
@@ -977,7 +1041,7 @@
         <v>366</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2">
         <v>0.47699999999999998</v>
@@ -1039,14 +1103,14 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="A22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1056,7 +1120,7 @@
         <v>370</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2">
         <v>0.58699999999999997</v>
@@ -1079,7 +1143,7 @@
         <v>366</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2">
         <v>0.46300000000000002</v>
@@ -1102,7 +1166,7 @@
         <v>361</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2">
         <v>0.41099999999999998</v>
@@ -1141,14 +1205,14 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="A27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -1158,7 +1222,7 @@
         <v>260</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2">
         <v>0.26100000000000001</v>
@@ -1243,14 +1307,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="A32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
@@ -1345,14 +1409,14 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="A37" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -1362,7 +1426,7 @@
         <v>370</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="2">
         <v>0.86399999999999999</v>
@@ -1385,7 +1449,7 @@
         <v>366</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>0.81899999999999995</v>
@@ -1431,7 +1495,7 @@
         <v>343</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>0.443</v>
@@ -1447,14 +1511,14 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
+      <c r="A42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
@@ -1480,22 +1544,22 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="10">
+      <c r="A44" s="1">
         <v>4</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="1">
         <v>323</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="11">
+      <c r="C44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="2">
         <v>0.312</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="2">
         <v>-1</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="2">
         <v>1.3</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -1503,22 +1567,22 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
+      <c r="A45" s="1">
         <v>6</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="1">
         <v>316</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="2">
         <v>0.26900000000000002</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="2">
         <v>-1.2</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="2">
         <v>0.9</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -1562,4 +1626,1370 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70D9CE0-F7B2-4FC5-A7AE-4769FF43E9D4}">
+  <dimension ref="A1:K47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection sqref="A1:J47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>370</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-0.9</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-1.7</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>366</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-1.7</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>361</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-1.4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>343</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-0.6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-2E-3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-0.6</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.188</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>370</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-3.9</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1.506</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>366</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-0.6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-2.1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.117</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>361</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.501</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>343</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-0.6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-1.4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.318</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>370</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-4.8</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3.113</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-26.8</v>
+      </c>
+      <c r="I14" s="2">
+        <v>8.0370000000000008</v>
+      </c>
+      <c r="J14" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>366</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-8.9</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5.1639999999999997</v>
+      </c>
+      <c r="F15" s="2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H15" s="2">
+        <v>-26.7</v>
+      </c>
+      <c r="I15" s="2">
+        <v>7.4039999999999999</v>
+      </c>
+      <c r="J15" s="2">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>361</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-11.6</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3.1949999999999998</v>
+      </c>
+      <c r="F16" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-25.3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5.3179999999999996</v>
+      </c>
+      <c r="J16" s="2">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>343</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-1.6</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.153</v>
+      </c>
+      <c r="F17" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-19.2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="J17" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>370</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-1.3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.751</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-3.1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1.165</v>
+      </c>
+      <c r="J19" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>366</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-0.9</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="2">
+        <v>-2.1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.877</v>
+      </c>
+      <c r="J20" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
+        <v>361</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-1.9</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="J21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1">
+        <v>343</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-0.6</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-0.6</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>370</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-0.9</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="2">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="J24" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1">
+        <v>366</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-1.4</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="2">
+        <v>-4.7</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1.157</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1">
+        <v>361</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-0.7</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="G26" s="2">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>-3.3</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1">
+        <v>343</v>
+      </c>
+      <c r="C27" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="2">
+        <v>-1.9</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>260</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-1.3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1">
+        <v>256</v>
+      </c>
+      <c r="C30" s="2">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1">
+        <v>251</v>
+      </c>
+      <c r="C31" s="2">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1">
+        <v>233</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H32" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1">
+        <v>370</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>-1.7</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.628</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G34" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H34" s="2">
+        <v>-6.9</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1.752</v>
+      </c>
+      <c r="J34" s="2">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1">
+        <v>366</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-0.9</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.378</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="G35" s="2">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="H35" s="2">
+        <v>-7.1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1.643</v>
+      </c>
+      <c r="J35" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1">
+        <v>361</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G36" s="2">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="H36" s="2">
+        <v>-7.1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="J36" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1">
+        <v>343</v>
+      </c>
+      <c r="C37" s="2">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="D37" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.499</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G37" s="2">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="H37" s="2">
+        <v>-1.7</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="J37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1">
+        <v>370</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-1.7</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="F39" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" s="2">
+        <v>-3.5</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="J39" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1">
+        <v>366</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="F40" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="2">
+        <v>-3.2</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="J40" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1">
+        <v>361</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D41" s="2">
+        <v>-1.2</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="2">
+        <v>-2.6</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="J41" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1">
+        <v>343</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.443</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G42" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H42" s="2">
+        <v>-0.7</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3">
+        <v>329</v>
+      </c>
+      <c r="C44" s="4">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D44" s="4">
+        <v>-1.2</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="G44" s="4">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H44" s="4">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="J44" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>4</v>
+      </c>
+      <c r="B45" s="1">
+        <v>323</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.312</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="G45" s="2">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="H45" s="2">
+        <v>-1.9</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>316</v>
+      </c>
+      <c r="C46" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D46" s="2">
+        <v>-1.2</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G46" s="2">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="H46" s="2">
+        <v>-1.9</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>12</v>
+      </c>
+      <c r="B47" s="5">
+        <v>295</v>
+      </c>
+      <c r="C47" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="D47" s="6">
+        <v>-1.4</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H47" s="6">
+        <v>-0.8</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="J47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/gdp_revisions_analysis/output/tables/unbiassdness_r_m_tesis.xlsx
+++ b/gdp_revisions_analysis/output/tables/unbiassdness_r_m_tesis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb59f80414e38fcc/Documentos/Research Assistant/CIUP/GDP Revisions/GitHub/peru_gdp_revisions/gdp_revisions_analysis/output/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="6_{F8A49D07-D449-4470-A706-79DE35031CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FA4237D-4471-4BC6-B814-6B2B2EB03D28}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="6_{F8A49D07-D449-4470-A706-79DE35031CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4E5F542-837F-4166-80E3-99EFD9B11505}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{59A818B8-AC1C-48B4-9EC6-7BF703468C77}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="54">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -165,9 +165,6 @@
     <t>1.467***</t>
   </si>
   <si>
-    <t>-0.352**</t>
-  </si>
-  <si>
     <t>0.299***</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
   </si>
   <si>
     <t>0.113*</t>
-  </si>
-  <si>
-    <t>-0.049*</t>
   </si>
   <si>
     <t>0.047**</t>
@@ -285,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -312,14 +306,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,14 +688,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -797,14 +790,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -899,14 +892,14 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -1001,14 +994,14 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1103,14 +1096,14 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1205,14 +1198,14 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -1307,14 +1300,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
@@ -1409,14 +1402,14 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -1511,14 +1504,14 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
@@ -1630,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70D9CE0-F7B2-4FC5-A7AE-4769FF43E9D4}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection sqref="A1:J47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1651,26 +1644,26 @@
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
-      <c r="C1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12"/>
+      <c r="C1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>3</v>
@@ -1696,21 +1689,20 @@
       <c r="J2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -1809,507 +1801,489 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>343</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="A7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>370</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-3.9</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1.506</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>366</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
         <v>-0.6</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="G7" s="2">
-        <v>-2E-3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>-0.6</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.188</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>370</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-5.0999999999999996</v>
-      </c>
       <c r="E9" s="2">
-        <v>0.90300000000000002</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="F9" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" s="2">
-        <v>-3.9</v>
+        <v>-2.1</v>
       </c>
       <c r="I9" s="2">
-        <v>1.506</v>
+        <v>1.117</v>
       </c>
       <c r="J9" s="2">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>361</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.501</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>370</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-4.8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3.113</v>
+      </c>
+      <c r="F12" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-26.8</v>
+      </c>
+      <c r="I12" s="2">
+        <v>8.0370000000000008</v>
+      </c>
+      <c r="J12" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>4</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B13" s="1">
         <v>366</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-0.6</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="2">
-        <v>-2.1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1.117</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-8.9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5.1639999999999997</v>
+      </c>
+      <c r="F13" s="2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-26.7</v>
+      </c>
+      <c r="I13" s="2">
+        <v>7.4039999999999999</v>
+      </c>
+      <c r="J13" s="2">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B14" s="1">
         <v>361</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.501</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="2">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="J11" s="2">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
-        <v>343</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-0.6</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="G12" s="2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H12" s="2">
-        <v>-1.4</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.318</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1">
-        <v>370</v>
-      </c>
       <c r="C14" s="2">
-        <v>0.11</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>-4.8</v>
+        <v>-11.6</v>
       </c>
       <c r="E14" s="2">
-        <v>3.113</v>
+        <v>3.1949999999999998</v>
       </c>
       <c r="F14" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>41</v>
+        <v>8.4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.128</v>
       </c>
       <c r="H14" s="2">
-        <v>-26.8</v>
+        <v>-25.3</v>
       </c>
       <c r="I14" s="2">
-        <v>8.0370000000000008</v>
+        <v>5.3179999999999996</v>
       </c>
       <c r="J14" s="2">
-        <v>21</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1">
-        <v>366</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2">
-        <v>-8.9</v>
-      </c>
-      <c r="E15" s="2">
-        <v>5.1639999999999997</v>
-      </c>
-      <c r="F15" s="2">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H15" s="2">
-        <v>-26.7</v>
-      </c>
-      <c r="I15" s="2">
-        <v>7.4039999999999999</v>
-      </c>
-      <c r="J15" s="2">
-        <v>20.399999999999999</v>
-      </c>
+      <c r="A15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
-        <v>361</v>
-      </c>
-      <c r="C16" s="2">
-        <v>8.2000000000000003E-2</v>
+        <v>370</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="2">
-        <v>-11.6</v>
+        <v>-1.3</v>
       </c>
       <c r="E16" s="2">
-        <v>3.1949999999999998</v>
+        <v>0.751</v>
       </c>
       <c r="F16" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.128</v>
+        <v>3.3</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H16" s="2">
-        <v>-25.3</v>
+        <v>-3.1</v>
       </c>
       <c r="I16" s="2">
-        <v>5.3179999999999996</v>
+        <v>1.165</v>
       </c>
       <c r="J16" s="2">
-        <v>10.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2">
-        <v>-1.6</v>
+        <v>-0.9</v>
       </c>
       <c r="E17" s="2">
-        <v>1.153</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="F17" s="2">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" s="2">
-        <v>-19.2</v>
+        <v>-2.1</v>
       </c>
       <c r="I17" s="2">
-        <v>3.29</v>
+        <v>0.877</v>
       </c>
       <c r="J17" s="2">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>361</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-1.9</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1">
-        <v>370</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2">
-        <v>-1.3</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.751</v>
-      </c>
-      <c r="F19" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="2">
-        <v>-3.1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1.165</v>
-      </c>
-      <c r="J19" s="2">
-        <v>4.3</v>
-      </c>
+      <c r="A19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2">
         <v>-0.9</v>
       </c>
       <c r="E20" s="2">
-        <v>0.47699999999999998</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="F20" s="2">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H20" s="2">
-        <v>-2.1</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="I20" s="2">
-        <v>0.877</v>
+        <v>1.3129999999999999</v>
       </c>
       <c r="J20" s="2">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1">
-        <v>361</v>
-      </c>
-      <c r="C21" s="2">
-        <v>3.5000000000000003E-2</v>
+        <v>366</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D21" s="2">
-        <v>-0.8</v>
+        <v>-1.4</v>
       </c>
       <c r="E21" s="2">
-        <v>0.40600000000000003</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="F21" s="2">
-        <v>1.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" s="2">
-        <v>-1.9</v>
+        <v>-4.7</v>
       </c>
       <c r="I21" s="2">
-        <v>0.78800000000000003</v>
+        <v>1.157</v>
       </c>
       <c r="J21" s="2">
-        <v>4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1">
-        <v>343</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.02</v>
+        <v>361</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D22" s="2">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="E22" s="2">
-        <v>0.28599999999999998</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="F22" s="2">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="G22" s="2">
-        <v>3.1E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="H22" s="2">
-        <v>-0.6</v>
+        <v>-3.3</v>
       </c>
       <c r="I22" s="2">
-        <v>0.46100000000000002</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="J22" s="2">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="A23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2</v>
       </c>
       <c r="B24" s="1">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2">
-        <v>-0.9</v>
+        <v>-1.3</v>
       </c>
       <c r="E24" s="2">
-        <v>0.58699999999999997</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="F24" s="2">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H24" s="2">
-        <v>-4.9000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="I24" s="2">
-        <v>1.3129999999999999</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="J24" s="2">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2317,31 +2291,31 @@
         <v>4</v>
       </c>
       <c r="B25" s="1">
-        <v>366</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>23</v>
+        <v>256</v>
+      </c>
+      <c r="C25" s="2">
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="D25" s="2">
-        <v>-1.4</v>
+        <v>-0.8</v>
       </c>
       <c r="E25" s="2">
-        <v>0.46300000000000002</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="F25" s="2">
-        <v>2.2999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="H25" s="2">
-        <v>-4.7</v>
+        <v>-0.3</v>
       </c>
       <c r="I25" s="2">
-        <v>1.157</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="J25" s="2">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2349,645 +2323,375 @@
         <v>6</v>
       </c>
       <c r="B26" s="1">
-        <v>361</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>251</v>
+      </c>
+      <c r="C26" s="2">
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="D26" s="2">
-        <v>-0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="E26" s="2">
-        <v>0.41099999999999998</v>
+        <v>0.61</v>
       </c>
       <c r="F26" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="G26" s="2">
-        <v>6.8000000000000005E-2</v>
+        <v>0.6</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="H26" s="2">
-        <v>-3.3</v>
+        <v>-0.3</v>
       </c>
       <c r="I26" s="2">
-        <v>0.93700000000000006</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="J26" s="2">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>12</v>
-      </c>
-      <c r="B27" s="1">
-        <v>343</v>
-      </c>
-      <c r="C27" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D27" s="2">
-        <v>-1.5</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="2">
-        <v>-1.9</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="A27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>370</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-1.7</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.628</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G28" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H28" s="2">
+        <v>-6.9</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1.752</v>
+      </c>
+      <c r="J28" s="2">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1">
-        <v>260</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>366</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3.1E-2</v>
       </c>
       <c r="D29" s="2">
-        <v>-1.3</v>
+        <v>-0.9</v>
       </c>
       <c r="E29" s="2">
-        <v>0.26100000000000001</v>
+        <v>0.378</v>
       </c>
       <c r="F29" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>37</v>
+        <v>1.9</v>
+      </c>
+      <c r="G29" s="2">
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="H29" s="2">
-        <v>-1</v>
+        <v>-7.1</v>
       </c>
       <c r="I29" s="2">
-        <v>0.42899999999999999</v>
+        <v>1.643</v>
       </c>
       <c r="J29" s="2">
-        <v>1.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1">
+        <v>361</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G30" s="2">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="H30" s="2">
+        <v>-7.1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="J30" s="2">
         <v>4</v>
       </c>
-      <c r="B30" s="1">
-        <v>256</v>
-      </c>
-      <c r="C30" s="2">
-        <v>-1.2999999999999999E-2</v>
-      </c>
-      <c r="D30" s="2">
-        <v>-0.8</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="2">
-        <v>-0.3</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0.9</v>
-      </c>
     </row>
     <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>6</v>
-      </c>
-      <c r="B31" s="1">
-        <v>251</v>
-      </c>
-      <c r="C31" s="2">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="D31" s="2">
-        <v>-0.4</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31" s="2">
-        <v>-0.3</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0.9</v>
-      </c>
+      <c r="A31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B32" s="1">
-        <v>233</v>
-      </c>
-      <c r="C32" s="2">
-        <v>2E-3</v>
+        <v>370</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D32" s="2">
-        <v>-0.1</v>
+        <v>-1.7</v>
       </c>
       <c r="E32" s="2">
-        <v>3.5999999999999997E-2</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="F32" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G32" s="2">
-        <v>2.4E-2</v>
+        <v>4.2</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H32" s="2">
-        <v>-0.1</v>
+        <v>-3.5</v>
       </c>
       <c r="I32" s="2">
-        <v>0.32300000000000001</v>
+        <v>1.7150000000000001</v>
       </c>
       <c r="J32" s="2">
-        <v>0.3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
+      <c r="A33" s="1">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1">
+        <v>366</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="2">
+        <v>-3.2</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="J33" s="2">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1">
+        <v>361</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>-1.2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="2">
+        <v>-2.6</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="J34" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
         <v>2</v>
       </c>
-      <c r="B34" s="1">
-        <v>370</v>
-      </c>
-      <c r="C34" s="2">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D34" s="2">
-        <v>-1.7</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.628</v>
-      </c>
-      <c r="F34" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="G34" s="2">
-        <v>4.7E-2</v>
-      </c>
-      <c r="H34" s="2">
-        <v>-6.9</v>
-      </c>
-      <c r="I34" s="2">
-        <v>1.752</v>
-      </c>
-      <c r="J34" s="2">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1">
-        <v>366</v>
-      </c>
-      <c r="C35" s="2">
-        <v>3.1E-2</v>
-      </c>
-      <c r="D35" s="2">
-        <v>-0.9</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.378</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="G35" s="2">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="H35" s="2">
-        <v>-7.1</v>
-      </c>
-      <c r="I35" s="2">
-        <v>1.643</v>
-      </c>
-      <c r="J35" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>6</v>
-      </c>
-      <c r="B36" s="1">
-        <v>361</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G36" s="2">
-        <v>-6.7000000000000004E-2</v>
-      </c>
-      <c r="H36" s="2">
-        <v>-7.1</v>
-      </c>
-      <c r="I36" s="2">
-        <v>1.6080000000000001</v>
-      </c>
-      <c r="J36" s="2">
-        <v>4</v>
+      <c r="B36" s="3">
+        <v>329</v>
+      </c>
+      <c r="C36" s="4">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D36" s="4">
+        <v>-1.2</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="G36" s="4">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H36" s="4">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="J36" s="4">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B37" s="1">
-        <v>343</v>
-      </c>
-      <c r="C37" s="2">
-        <v>-3.1E-2</v>
+        <v>323</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D37" s="2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="E37" s="2">
-        <v>0.499</v>
+        <v>0.312</v>
       </c>
       <c r="F37" s="2">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="G37" s="2">
-        <v>-2.1999999999999999E-2</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="H37" s="2">
-        <v>-1.7</v>
+        <v>-1.9</v>
       </c>
       <c r="I37" s="2">
-        <v>0.73099999999999998</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="J37" s="2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>2</v>
-      </c>
-      <c r="B39" s="1">
-        <v>370</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="2">
-        <v>-1.7</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="F39" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H39" s="2">
-        <v>-3.5</v>
-      </c>
-      <c r="I39" s="2">
-        <v>1.7150000000000001</v>
-      </c>
-      <c r="J39" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1">
-        <v>366</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="F40" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" s="2">
-        <v>-3.2</v>
-      </c>
-      <c r="I40" s="2">
-        <v>1.19</v>
-      </c>
-      <c r="J40" s="2">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A38" s="1">
         <v>6</v>
       </c>
-      <c r="B41" s="1">
-        <v>361</v>
-      </c>
-      <c r="C41" s="2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="B38" s="1">
+        <v>316</v>
+      </c>
+      <c r="C38" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D38" s="2">
         <v>-1.2</v>
       </c>
-      <c r="E41" s="2">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" s="2">
-        <v>-2.6</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="J41" s="2">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>12</v>
-      </c>
-      <c r="B42" s="1">
-        <v>343</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="2">
-        <v>-0.3</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0.443</v>
-      </c>
-      <c r="F42" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="G42" s="2">
-        <v>2.4E-2</v>
-      </c>
-      <c r="H42" s="2">
-        <v>-0.7</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="J42" s="2">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>2</v>
-      </c>
-      <c r="B44" s="3">
-        <v>329</v>
-      </c>
-      <c r="C44" s="4">
-        <v>2.7E-2</v>
-      </c>
-      <c r="D44" s="4">
-        <v>-1.2</v>
-      </c>
-      <c r="E44" s="4">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="F44" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="G44" s="4">
-        <v>7.8E-2</v>
-      </c>
-      <c r="H44" s="4">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="I44" s="4">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="J44" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>4</v>
-      </c>
-      <c r="B45" s="1">
-        <v>323</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0.312</v>
-      </c>
-      <c r="F45" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="G45" s="2">
-        <v>-1.2999999999999999E-2</v>
-      </c>
-      <c r="H45" s="2">
+      <c r="E38" s="2">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G38" s="2">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="H38" s="2">
         <v>-1.9</v>
       </c>
-      <c r="I45" s="2">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="J45" s="2">
+      <c r="I38" s="2">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="J38" s="2">
         <v>1.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>6</v>
-      </c>
-      <c r="B46" s="1">
-        <v>316</v>
-      </c>
-      <c r="C46" s="2">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D46" s="2">
-        <v>-1.2</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="G46" s="2">
-        <v>-4.1000000000000002E-2</v>
-      </c>
-      <c r="H46" s="2">
-        <v>-1.9</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="J46" s="2">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
-        <v>12</v>
-      </c>
-      <c r="B47" s="5">
-        <v>295</v>
-      </c>
-      <c r="C47" s="6">
-        <v>2E-3</v>
-      </c>
-      <c r="D47" s="6">
-        <v>-1.4</v>
-      </c>
-      <c r="E47" s="6">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="F47" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G47" s="6">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="H47" s="6">
-        <v>-0.8</v>
-      </c>
-      <c r="I47" s="6">
-        <v>0.39</v>
-      </c>
-      <c r="J47" s="6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A35:J35"/>
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A19:J19"/>
     <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A28:J28"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A31:J31"/>
     <mergeCell ref="G1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
